--- a/web-automation-framework/target/classes/excel/Registro Reclamo Movil.xlsx
+++ b/web-automation-framework/target/classes/excel/Registro Reclamo Movil.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>TC1</t>
   </si>
@@ -51,12 +51,6 @@
     <t>APELLIDO</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Junco</t>
-  </si>
-  <si>
     <t>NUMERO_CONTACTO</t>
   </si>
   <si>
@@ -72,15 +66,9 @@
     <t>ajuncov.18@gmail.com</t>
   </si>
   <si>
-    <t>Virge de Fatima</t>
-  </si>
-  <si>
     <t>ADJUNTA_RECIBO</t>
   </si>
   <si>
-    <t>C:\Users\alberto.junco\Downloads\screencapture-itsm-tdp-onbmc-arsys-forms-onbmc-s-SHR-LandingConsole-Default-Administrator-View-2020-02-25-20_44_28</t>
-  </si>
-  <si>
     <t>DATOS</t>
   </si>
   <si>
@@ -159,10 +147,28 @@
     <t>COMENTARIO_ESPECIFICA_ERROR</t>
   </si>
   <si>
-    <t xml:space="preserve">Comentario DE ERROR </t>
-  </si>
-  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Comentario DE ERROR</t>
+  </si>
+  <si>
+    <t>C:\Users\Naimar.Garcia\Downloads\DocPrueba</t>
+  </si>
+  <si>
+    <t>naimarcarolina@gmail.com</t>
+  </si>
+  <si>
+    <t>Jiron Pirandello</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Naimar</t>
+  </si>
+  <si>
+    <t>COMENTARIO_IMPORTE_OFRECIDO</t>
   </si>
 </sst>
 </file>
@@ -532,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +554,10 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="146.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="46.0" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="146.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="48.0" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="20" max="20" customWidth="true" width="23.0" collapsed="true"/>
@@ -562,9 +568,10 @@
     <col min="26" max="27" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="27.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,69 +600,72 @@
         <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>45</v>
+      <c r="AD1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>999941929</v>
@@ -673,89 +683,92 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1">
-        <v>994177980</v>
+        <v>926625389</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="P2" s="1">
         <v>987654321</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S2" s="1">
         <v>958150158</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="Y2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="4" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="5" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="6" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="7" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="9" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="12" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="13" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="14" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="15" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="16" s="1" spans="1:29" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="3" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="4" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="5" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="12" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="13" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="14" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="15" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="16" s="1" spans="1:36" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="17" s="1" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="18" s="1" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="19" s="1" x14ac:dyDescent="0.25"/>
@@ -815,8 +828,8 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="K2"/>
-    <hyperlink r:id="rId3" ref="L2"/>
-    <hyperlink r:id="rId4" ref="W2"/>
+    <hyperlink r:id="rId3" ref="W2"/>
+    <hyperlink r:id="rId4" ref="L2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId5" verticalDpi="300"/>
